--- a/compilador.xlsx
+++ b/compilador.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIEL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CACA40D5-388B-42C6-B444-766EACD1D222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="9495" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="compilador09b" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="166">
   <si>
     <t>identificador</t>
   </si>
@@ -458,47 +458,77 @@
     <t>r20</t>
   </si>
   <si>
-    <t>´$0&lt;DefFun&gt;6</t>
-  </si>
-  <si>
-    <t>PILA</t>
-  </si>
-  <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
-    <t>SALIDA</t>
-  </si>
-  <si>
-    <t>´$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5 &lt;Definicion&gt; ::= &lt;DefFunc&gt; </t>
-  </si>
-  <si>
-    <t>´$0&lt;Definicion&gt; 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 &lt;Definiciones&gt; ::= \e </t>
-  </si>
-  <si>
-    <t>´$0&lt;Definiciones&gt;2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 &lt;programa&gt; ::= &lt;Definiciones&gt; </t>
-  </si>
-  <si>
-    <t>´$0 &lt;programa&gt;1</t>
+    <t>pila</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>salida</t>
+  </si>
+  <si>
+    <t>int a;$</t>
+  </si>
+  <si>
+    <t>a;$</t>
+  </si>
+  <si>
+    <t>;$</t>
+  </si>
+  <si>
+    <t>$0int5</t>
+  </si>
+  <si>
+    <t>$0int1a8</t>
+  </si>
+  <si>
+    <t>R7 &lt;ListaVar&gt; ::= \e</t>
+  </si>
+  <si>
+    <t>$0int1a8&lt;ListaVar&gt;9</t>
+  </si>
+  <si>
+    <t>$0int1a8&lt;ListaVar&gt;9;12</t>
+  </si>
+  <si>
+    <t>R6 &lt;DefVar&gt; ::= tipo identificador &lt;ListaVar&gt; ;</t>
+  </si>
+  <si>
+    <t>$0&lt;DefVar&gt;4</t>
+  </si>
+  <si>
+    <t>R4 &lt;Definicion&gt; ::= &lt;DefVar&gt;</t>
+  </si>
+  <si>
+    <t>R1 &lt;programa&gt; ::= &lt;Definiciones&gt;</t>
+  </si>
+  <si>
+    <t>$0&lt;Definicion&gt;3</t>
+  </si>
+  <si>
+    <t>R2 &lt;Definiciones&gt; ::= \e</t>
+  </si>
+  <si>
+    <t>$0&lt;Definiciones&gt;2</t>
+  </si>
+  <si>
+    <t>$0&lt;programa&gt;1</t>
   </si>
   <si>
     <t>aceptacion</t>
+  </si>
+  <si>
+    <t>0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 -3 1 2 3 4 0 6 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +663,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -976,11 +1012,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1115,23 +1158,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1167,23 +1193,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1359,14 +1368,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y6" sqref="A6:Y6"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B1">
@@ -1784,7 +1796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3821,87 +3833,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D94881-CDE1-4205-9151-23F3235703E1}">
-  <dimension ref="B1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>156</v>
+      <c r="E11" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>